--- a/04_notes/PPR_metadata.xlsx
+++ b/04_notes/PPR_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\OneDrive\Desktop\Jess\LDP Internship\LDP-Internship\04_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6A4C9F-938B-4B92-AF36-185BB5C8DA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE799F8-5993-427C-AF53-43672B2F4E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{0A26F8E4-FEBB-42D6-9B0A-12408423D2FE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Column name</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Used to determine pond ID and sampling date for TICTOC results</t>
+  </si>
+  <si>
+    <t>Merged with SDWS Long Term Monitoring data</t>
   </si>
 </sst>
 </file>
@@ -250,12 +253,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,7 +733,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +802,9 @@
       <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -815,7 +821,9 @@
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -843,7 +851,12 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -935,7 +948,12 @@
       <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -985,7 +1003,9 @@
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/04_notes/PPR_metadata.xlsx
+++ b/04_notes/PPR_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\OneDrive\Desktop\Jess\LDP Internship\LDP-Internship\04_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE799F8-5993-427C-AF53-43672B2F4E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965AF8AB-1773-4A5D-AD6C-048BD24B3A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{0A26F8E4-FEBB-42D6-9B0A-12408423D2FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0A26F8E4-FEBB-42D6-9B0A-12408423D2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="228">
   <si>
     <t>Column name</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Sample location ID</t>
   </si>
   <si>
-    <t>Sample collection date</t>
-  </si>
-  <si>
     <t>File name</t>
   </si>
   <si>
@@ -178,13 +175,577 @@
   </si>
   <si>
     <t>Merged with SDWS Long Term Monitoring data</t>
+  </si>
+  <si>
+    <t>Unsure what data entailed, could not get info from others about it in time</t>
+  </si>
+  <si>
+    <t>250_nm</t>
+  </si>
+  <si>
+    <t>254_nm</t>
+  </si>
+  <si>
+    <t>280_nm</t>
+  </si>
+  <si>
+    <t>350_nm</t>
+  </si>
+  <si>
+    <t>365_nm</t>
+  </si>
+  <si>
+    <t>370_nm</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Fe_mg.L</t>
+  </si>
+  <si>
+    <t>SO4_mg.L</t>
+  </si>
+  <si>
+    <t>DOC_mg.L</t>
+  </si>
+  <si>
+    <t>SUVA</t>
+  </si>
+  <si>
+    <t>Wholewater_THg_ng.L</t>
+  </si>
+  <si>
+    <t>Wholewater_MeHg_ng.L</t>
+  </si>
+  <si>
+    <t>MeHg_perc</t>
+  </si>
+  <si>
+    <t>CO2_umol.L</t>
+  </si>
+  <si>
+    <t>CH4_umol.L</t>
+  </si>
+  <si>
+    <t>DIC_mg.L</t>
+  </si>
+  <si>
+    <t>TDC_mg.L</t>
+  </si>
+  <si>
+    <t>Chla</t>
+  </si>
+  <si>
+    <t>Temp_degC</t>
+  </si>
+  <si>
+    <t>Cond_uS.cm</t>
+  </si>
+  <si>
+    <t>DO_perc</t>
+  </si>
+  <si>
+    <t>DO_mg.L</t>
+  </si>
+  <si>
+    <t>Secchi_cm</t>
+  </si>
+  <si>
+    <t>ORP</t>
+  </si>
+  <si>
+    <t>Airtemp_C</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Absorbance at 250 nm</t>
+  </si>
+  <si>
+    <t>Absorbance at 254 nm</t>
+  </si>
+  <si>
+    <t>Absorbance at 280 nm</t>
+  </si>
+  <si>
+    <t>Absorbance at 350 nm</t>
+  </si>
+  <si>
+    <t>Absorbance at 365 nm</t>
+  </si>
+  <si>
+    <t>Absorbance at 370 nm</t>
+  </si>
+  <si>
+    <t>pH of surface water</t>
+  </si>
+  <si>
+    <t>Methylmercury saturation</t>
+  </si>
+  <si>
+    <t>Methylmercury concentration in unfiltered water</t>
+  </si>
+  <si>
+    <t>Total marcury concentration in unfiltered water</t>
+  </si>
+  <si>
+    <t>Specific UV absorbance at 254 nm</t>
+  </si>
+  <si>
+    <t>Dissolved organic carbon concentration</t>
+  </si>
+  <si>
+    <t>Carbon dioxide concentration</t>
+  </si>
+  <si>
+    <t>Methane concentration</t>
+  </si>
+  <si>
+    <t>Dissolved inorganic carbon concentration</t>
+  </si>
+  <si>
+    <t>Total dissolved carbon concentration</t>
+  </si>
+  <si>
+    <t>Chlorophyll a (total algal biomass) concentration</t>
+  </si>
+  <si>
+    <t>Temperature of surface water</t>
+  </si>
+  <si>
+    <t>Conductivity of surface water</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen saturation of surface water</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen concentration of surface water</t>
+  </si>
+  <si>
+    <t>Secchi disk depth</t>
+  </si>
+  <si>
+    <t>Oxidation reduction potential</t>
+  </si>
+  <si>
+    <t>Temperature of ambient air</t>
+  </si>
+  <si>
+    <t>Cloud cover</t>
+  </si>
+  <si>
+    <t>Sulfate concentration</t>
+  </si>
+  <si>
+    <t>Iron concentration</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>ng/L</t>
+  </si>
+  <si>
+    <t>deg C</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>L/mg-cm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g/L</t>
+    </r>
+  </si>
+  <si>
+    <t>µmol/L</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Sample collection date (YY:MM:DD format)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Analyzing_date</t>
+  </si>
+  <si>
+    <t>Sample analysis date (YY:MM:DD format)</t>
+  </si>
+  <si>
+    <t>Time fo sample collection (HH:MM:SS format)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Any comments/observations</t>
+  </si>
+  <si>
+    <t>Delta2H</t>
+  </si>
+  <si>
+    <t>Delta18O</t>
+  </si>
+  <si>
+    <t>SRP_mg.L</t>
+  </si>
+  <si>
+    <t>TDP_mg.L</t>
+  </si>
+  <si>
+    <t>TP_mg.L</t>
+  </si>
+  <si>
+    <t>NH3_mg.L</t>
+  </si>
+  <si>
+    <t>Urea_mg.L</t>
+  </si>
+  <si>
+    <t>NO3_mg.L</t>
+  </si>
+  <si>
+    <t>TDN_mg.L</t>
+  </si>
+  <si>
+    <t>TN_mg.L</t>
+  </si>
+  <si>
+    <t>Alk_mg.L</t>
+  </si>
+  <si>
+    <t>TRP_mg.L</t>
+  </si>
+  <si>
+    <t>permil</t>
+  </si>
+  <si>
+    <t>Hydrogen 2 isotope (deuterium) concentration</t>
+  </si>
+  <si>
+    <t>Oxygen 18 isotope concetration</t>
+  </si>
+  <si>
+    <t>Soluble reactive phosphorus concentration</t>
+  </si>
+  <si>
+    <t>Totdal dissolved phosphorus concentration</t>
+  </si>
+  <si>
+    <t>Total phosphorus concentration</t>
+  </si>
+  <si>
+    <t>Ammonia concentration</t>
+  </si>
+  <si>
+    <t>Urea concentration</t>
+  </si>
+  <si>
+    <t>Nitrate concentration</t>
+  </si>
+  <si>
+    <t>Total dissolved nitrogen concentration</t>
+  </si>
+  <si>
+    <t>Total nitrogen concentration</t>
+  </si>
+  <si>
+    <t>Alkalinity concentration</t>
+  </si>
+  <si>
+    <t>Total reactive phosphorus concentration</t>
+  </si>
+  <si>
+    <t>THg_ug.kg</t>
+  </si>
+  <si>
+    <t>Total mercury concentration in serdiment</t>
+  </si>
+  <si>
+    <t>µS/cm</t>
+  </si>
+  <si>
+    <t>µg/kg</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Distance off shore</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Depth_m</t>
+  </si>
+  <si>
+    <t>Depth of water column where sample was taken</t>
+  </si>
+  <si>
+    <t>TIC_ppm</t>
+  </si>
+  <si>
+    <t>TOC_ppm</t>
+  </si>
+  <si>
+    <t>Total inorganic carbon concentration</t>
+  </si>
+  <si>
+    <t>Total organic carbon concentration</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>Be_ppm</t>
+  </si>
+  <si>
+    <t>B_ppm</t>
+  </si>
+  <si>
+    <t>Al_ppm</t>
+  </si>
+  <si>
+    <t>Li_ppm</t>
+  </si>
+  <si>
+    <t>Ga_ppm</t>
+  </si>
+  <si>
+    <t>Na_ppm</t>
+  </si>
+  <si>
+    <t>Mg_ppm</t>
+  </si>
+  <si>
+    <t>K_ppm</t>
+  </si>
+  <si>
+    <t>Ti_ppm</t>
+  </si>
+  <si>
+    <t>Si_ppm</t>
+  </si>
+  <si>
+    <t>Ca_ppm</t>
+  </si>
+  <si>
+    <t>Fe_ppm</t>
+  </si>
+  <si>
+    <t>V_ppm</t>
+  </si>
+  <si>
+    <t>Cr_ppm</t>
+  </si>
+  <si>
+    <t>Mn_ppm</t>
+  </si>
+  <si>
+    <t>Co_ppm</t>
+  </si>
+  <si>
+    <t>Ni_ppm</t>
+  </si>
+  <si>
+    <t>Cu_ppm</t>
+  </si>
+  <si>
+    <t>Zn_ppm</t>
+  </si>
+  <si>
+    <t>Rb_ppm</t>
+  </si>
+  <si>
+    <t>Sr_ppm</t>
+  </si>
+  <si>
+    <t>P_ppm</t>
+  </si>
+  <si>
+    <t>S_ppm</t>
+  </si>
+  <si>
+    <t>As_ppm</t>
+  </si>
+  <si>
+    <t>Se_ppm</t>
+  </si>
+  <si>
+    <t>Mo_ppm</t>
+  </si>
+  <si>
+    <t>Cd_ppm</t>
+  </si>
+  <si>
+    <t>Cs_ppm</t>
+  </si>
+  <si>
+    <t>Ba_ppm</t>
+  </si>
+  <si>
+    <t>Ce_ppm</t>
+  </si>
+  <si>
+    <t>Pb_ppm</t>
+  </si>
+  <si>
+    <t>Th_ppm</t>
+  </si>
+  <si>
+    <t>U_ppm</t>
+  </si>
+  <si>
+    <t>Beryllium concentration</t>
+  </si>
+  <si>
+    <t>Boron concentration</t>
+  </si>
+  <si>
+    <t>Aluminum concentration</t>
+  </si>
+  <si>
+    <t>Lithium concentration</t>
+  </si>
+  <si>
+    <t>Gallium concentration</t>
+  </si>
+  <si>
+    <t>Sodium concentration</t>
+  </si>
+  <si>
+    <t>Magnesium concentration</t>
+  </si>
+  <si>
+    <t>Potassium concentration</t>
+  </si>
+  <si>
+    <t>Titanium concentration</t>
+  </si>
+  <si>
+    <t>Silicon concentration</t>
+  </si>
+  <si>
+    <t>Calcium concentration</t>
+  </si>
+  <si>
+    <t>Vanadium concentration</t>
+  </si>
+  <si>
+    <t>Chromium concentration</t>
+  </si>
+  <si>
+    <t>Manganese concentration</t>
+  </si>
+  <si>
+    <t>Cobalt concentration</t>
+  </si>
+  <si>
+    <t>Nickel concentration</t>
+  </si>
+  <si>
+    <t>Copper concentration</t>
+  </si>
+  <si>
+    <t>Zinc concentration</t>
+  </si>
+  <si>
+    <t>Rubidium concentration</t>
+  </si>
+  <si>
+    <t>Strontium concentration</t>
+  </si>
+  <si>
+    <t>Phosphorus concentration</t>
+  </si>
+  <si>
+    <t>Sulfur concentration</t>
+  </si>
+  <si>
+    <t>Arsenic concentration</t>
+  </si>
+  <si>
+    <t>Selenium concentration</t>
+  </si>
+  <si>
+    <t>Molybdenum concentration</t>
+  </si>
+  <si>
+    <t>Cadmium concentration</t>
+  </si>
+  <si>
+    <t>Cesium concentration</t>
+  </si>
+  <si>
+    <t>Barium concentration</t>
+  </si>
+  <si>
+    <t>Cerium concentration</t>
+  </si>
+  <si>
+    <t>Lead concentration</t>
+  </si>
+  <si>
+    <t>Thorium concentration</t>
+  </si>
+  <si>
+    <t>Uranium concentration</t>
+  </si>
+  <si>
+    <t>Did not have specific sample collection dates, so cannot be put onto DataStream</t>
+  </si>
+  <si>
+    <t>Except many columns did not have headers, and did not have enough info on ABS and ABS /m columns to put on DataStream</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>The mean was taken if both columns had values, otherwise the non-NA value was taken</t>
+  </si>
+  <si>
+    <t>Any columns that would have been considered as duplicate characteristics in DataStream were combined (e.g., Absorbance, DOC, and DIC with 1.2 filtered values and 0.45 filtered values)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,14 +768,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="1"/>
-      <charset val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -226,18 +779,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -251,15 +798,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,7 +828,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -655,17 +1199,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4275D6BF-9C62-4FC4-B9B5-4B755ECD8D47}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,329 +1230,1226 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="2"/>
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C53D5CE-6511-4009-A717-0C76867A9D22}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
         <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
